--- a/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -253,19 +253,10 @@
     <t xml:space="preserve">Эсполон Репосадо - 0.7л</t>
   </si>
   <si>
-    <t xml:space="preserve">Jose Cuervo Silver - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хосе Куэрво Сильвер - 0.7л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Cuervo silver - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Cuervo Reposado - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хосе Куэрво Репосадо - 0.7л</t>
+    <t xml:space="preserve">Old Smuggler - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олд Смагглер - 0.7л</t>
   </si>
   <si>
     <t xml:space="preserve">Spirits Shelf: Aperetive</t>
@@ -324,7 +315,7 @@
     <t xml:space="preserve">Доля полки: Виски</t>
   </si>
   <si>
-    <t xml:space="preserve">Bushmills, Wild Turkey</t>
+    <t xml:space="preserve">Bushmills, Wild Turkey, Old Smuggler</t>
   </si>
   <si>
     <t xml:space="preserve">Spirits Shelf: Tequila</t>
@@ -333,7 +324,7 @@
     <t xml:space="preserve">Доля полки: Текила</t>
   </si>
   <si>
-    <t xml:space="preserve">Espolon, Jose Cuervo</t>
+    <t xml:space="preserve">Espolon</t>
   </si>
   <si>
     <t xml:space="preserve">Campari Display Any </t>
@@ -342,7 +333,10 @@
     <t xml:space="preserve">Кампари Дисплей</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacture: CAMPARI</t>
+    <t xml:space="preserve">Manufacturer: CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
   </si>
   <si>
     <t xml:space="preserve">Display Alcohol</t>
@@ -437,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,6 +441,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,8 +476,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -487,39 +497,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="27" min="24" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -641,7 +655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -690,17 +704,17 @@
       <c r="AB2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>0.07</v>
       </c>
       <c r="AJ2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -749,17 +763,17 @@
       <c r="AB3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="3" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK3" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -808,17 +822,17 @@
       <c r="AB4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="3" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AK4" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -867,17 +881,17 @@
       <c r="AB5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="AJ5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AK5" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -926,17 +940,17 @@
       <c r="AB6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="3" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AK6" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -985,17 +999,17 @@
       <c r="AB7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AC7" s="3" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AK7" s="4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1044,17 +1058,17 @@
       <c r="AB8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AC8" s="3" t="n">
         <v>0.04</v>
       </c>
       <c r="AJ8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AK8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1103,17 +1117,17 @@
       <c r="AB9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" s="2" t="n">
-        <v>0.02</v>
+      <c r="AC9" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="AJ9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9" s="4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1162,17 +1176,17 @@
       <c r="AB10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="2" t="n">
-        <v>0.02</v>
+      <c r="AC10" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="AJ10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AK10" s="4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1221,17 +1235,17 @@
       <c r="AB11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="2" t="n">
-        <v>0.03</v>
+      <c r="AC11" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="AJ11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AK11" s="4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -1280,17 +1294,17 @@
       <c r="AB12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="2" t="n">
-        <v>0.03</v>
+      <c r="AC12" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="AJ12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AK12" s="4" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1339,17 +1353,17 @@
       <c r="AB13" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AC13" s="3" t="n">
         <v>0.02</v>
       </c>
       <c r="AJ13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AK13" s="4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1398,17 +1412,17 @@
       <c r="AB14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AC14" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="AJ14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AK14" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -1457,19 +1471,19 @@
       <c r="AB15" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AC15" s="3" t="n">
         <v>0.03</v>
       </c>
       <c r="AJ15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AK15" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>40</v>
@@ -1477,10 +1491,10 @@
       <c r="C16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="0" t="s">
@@ -1489,11 +1503,11 @@
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>7501035042308</v>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>5010327605005</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>45</v>
@@ -1516,136 +1530,139 @@
       <c r="AB16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="2" t="n">
-        <v>0.01</v>
+      <c r="AC16" s="3" t="n">
+        <v>0.02</v>
       </c>
       <c r="AJ16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AK16" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>7501035042131</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="T17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC17" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AJ17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="U18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB18" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>40</v>
@@ -1654,25 +1671,22 @@
         <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="G19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>93</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
@@ -1684,89 +1698,87 @@
         <v>47</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC19" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="6" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AK19" s="4" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB20" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJ20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>40</v>
@@ -1783,48 +1795,47 @@
       <c r="F21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="4" t="n">
         <v>4</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
       <c r="L21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="11" t="s">
         <v>100</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="U21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC21" s="2" t="n">
-        <v>0.1</v>
+      <c r="AC21" s="6" t="n">
+        <v>0.05</v>
       </c>
       <c r="AJ21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AK21" s="4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>40</v>
@@ -1842,102 +1853,43 @@
         <v>44</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="O22" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="AA22" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AK22" s="4" t="n">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB23" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK23" s="0" t="n">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -500,33 +500,33 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="27" min="24" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="2" width="13.3886639676113"/>
@@ -1563,7 +1563,9 @@
         <v>6</v>
       </c>
       <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
+      <c r="K17" s="0" t="s">
+        <v>81</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1742,6 +1744,9 @@
         <v>14</v>
       </c>
       <c r="J20" s="0"/>
+      <c r="K20" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1799,6 +1804,9 @@
         <v>4</v>
       </c>
       <c r="J21" s="0"/>
+      <c r="K21" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1857,6 +1865,9 @@
       </c>
       <c r="J22" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>45</v>

--- a/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">Бушмилз - 0.7л ПУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushmills Original Box - 0.7L</t>
   </si>
   <si>
     <t xml:space="preserve">Espolon Blanco - 0.7L</t>
@@ -351,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,6 +378,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -383,12 +393,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -406,7 +422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,8 +446,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,23 +463,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,19 +499,80 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,33 +588,33 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="31.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="29.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,8 +1354,8 @@
       <c r="J12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>8000040500012</v>
+      <c r="K12" s="5" t="n">
+        <v>4607174573314</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>45</v>
@@ -1326,11 +1410,11 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>5055966800022</v>
+      <c r="J13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>5010103917087</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>45</v>
@@ -1374,10 +1458,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>44</v>
@@ -1386,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>721059707503</v>
@@ -1433,10 +1517,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>44</v>
@@ -1445,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>721059707510</v>
@@ -1492,10 +1576,10 @@
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>44</v>
@@ -1503,10 +1587,10 @@
       <c r="G16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="5" t="n">
+      <c r="J16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>5010327605005</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1551,10 +1635,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>44</v>
@@ -1564,33 +1648,33 @@
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC17" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC17" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="AJ17" s="0" t="n">
@@ -1611,10 +1695,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>44</v>
@@ -1622,14 +1706,14 @@
       <c r="G18" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>90</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>45</v>
@@ -1641,18 +1725,18 @@
         <v>47</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC18" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC18" s="7" t="n">
         <v>0.12</v>
       </c>
       <c r="AJ18" s="0" t="n">
@@ -1673,10 +1757,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>44</v>
@@ -1684,11 +1768,11 @@
       <c r="G19" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>94</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>45</v>
@@ -1700,18 +1784,18 @@
         <v>47</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC19" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC19" s="7" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ19" s="0" t="n">
@@ -1732,10 +1816,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>44</v>
@@ -1744,34 +1828,34 @@
         <v>14</v>
       </c>
       <c r="J20" s="0"/>
-      <c r="K20" s="11" t="s">
-        <v>97</v>
+      <c r="K20" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>97</v>
+      <c r="N20" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA20" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC20" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC20" s="7" t="n">
         <v>0.08</v>
       </c>
       <c r="AJ20" s="0" t="n">
@@ -1792,10 +1876,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>44</v>
@@ -1804,34 +1888,34 @@
         <v>4</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="11" t="s">
-        <v>100</v>
+      <c r="K21" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>100</v>
+      <c r="N21" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA21" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC21" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="7" t="n">
         <v>0.05</v>
       </c>
       <c r="AJ21" s="0" t="n">
@@ -1852,10 +1936,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>44</v>
@@ -1864,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>45</v>
@@ -1876,10 +1960,10 @@
         <v>46</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA22" s="0" t="s">
         <v>50</v>
